--- a/output/02.compo-nutrient-patterns/summary_fish_compo_all_mean_sp.xlsx
+++ b/output/02.compo-nutrient-patterns/summary_fish_compo_all_mean_sp.xlsx
@@ -1,107 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023_09\01.Analyses\Kerguelen_fish_composition\output\02.compo-nutrient-patterns\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58853365-580C-498D-956F-4850D0467D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>stat_variable</t>
-  </si>
-  <si>
-    <t>Ag</t>
-  </si>
-  <si>
-    <t>As</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>Cd</t>
-  </si>
-  <si>
-    <t>Co</t>
-  </si>
-  <si>
-    <t>Cu</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>Mn</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>Ni</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Pb</t>
-  </si>
-  <si>
-    <t>Se</t>
-  </si>
-  <si>
-    <t>Sr</t>
-  </si>
-  <si>
-    <t>Zn</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>2.5p_quant</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>97.5p_quant</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>cv</t>
+    <t xml:space="preserve">stat_variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5p_quant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.5p_quant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -137,15 +130,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -427,16 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,400 +474,400 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C2">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="D2">
-        <v>7475.2529999999997</v>
-      </c>
-      <c r="E2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="F2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G2">
+      <c r="B2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7475.253</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.54</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>11.371</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>5801.835</v>
       </c>
-      <c r="J2">
-        <v>1202.5809999999999</v>
-      </c>
-      <c r="K2">
+      <c r="J2" t="n">
+        <v>1202.581</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.81</v>
       </c>
-      <c r="L2">
-        <v>4160.9780000000001</v>
-      </c>
-      <c r="M2">
+      <c r="L2" t="n">
+        <v>4160.978</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.371</v>
       </c>
-      <c r="N2">
-        <v>8422.9850000000006</v>
-      </c>
-      <c r="O2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="P2">
-        <v>1.4870000000000001</v>
-      </c>
-      <c r="Q2">
-        <v>37.968000000000004</v>
-      </c>
-      <c r="R2">
-        <v>21.228000000000002</v>
+      <c r="N2" t="n">
+        <v>8422.985</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>37.968</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21.228</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C3">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="D3">
-        <v>7719.6530000000002</v>
-      </c>
-      <c r="E3">
+      <c r="B3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7719.653</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.155</v>
       </c>
-      <c r="F3">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="G3">
-        <v>2.6760000000000002</v>
-      </c>
-      <c r="H3">
-        <v>16.815999999999999</v>
-      </c>
-      <c r="I3">
+      <c r="F3" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.676</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16.816</v>
+      </c>
+      <c r="I3" t="n">
         <v>5930.91</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>1217.002</v>
       </c>
-      <c r="K3">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="L3">
-        <v>4930.3559999999998</v>
-      </c>
-      <c r="M3">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="N3">
-        <v>8603.6329999999998</v>
-      </c>
-      <c r="O3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="P3">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="Q3">
-        <v>43.901000000000003</v>
-      </c>
-      <c r="R3">
+      <c r="K3" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4930.356</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.564</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8603.633</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.594</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>43.901</v>
+      </c>
+      <c r="R3" t="n">
         <v>23.718</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="C4">
-        <v>4.3940000000000001</v>
-      </c>
-      <c r="D4">
-        <v>19869.187000000002</v>
-      </c>
-      <c r="E4">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="F4">
+      <c r="B4" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.394</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19869.187</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.09</v>
       </c>
-      <c r="G4">
-        <v>5.5789999999999997</v>
-      </c>
-      <c r="H4">
+      <c r="G4" t="n">
+        <v>5.579</v>
+      </c>
+      <c r="H4" t="n">
         <v>55.869</v>
       </c>
-      <c r="I4">
-        <v>9963.3469999999998</v>
-      </c>
-      <c r="J4">
+      <c r="I4" t="n">
+        <v>9963.347</v>
+      </c>
+      <c r="J4" t="n">
         <v>2055.645</v>
       </c>
-      <c r="K4">
-        <v>2.7280000000000002</v>
-      </c>
-      <c r="L4">
-        <v>11314.147000000001</v>
-      </c>
-      <c r="M4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N4">
+      <c r="K4" t="n">
+        <v>2.728</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11314.147</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N4" t="n">
         <v>16059.963</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>0.155</v>
       </c>
-      <c r="P4">
-        <v>2.7890000000000001</v>
-      </c>
-      <c r="Q4">
-        <v>81.644999999999996</v>
-      </c>
-      <c r="R4">
-        <v>53.430999999999997</v>
+      <c r="P4" t="n">
+        <v>2.789</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>81.645</v>
+      </c>
+      <c r="R4" t="n">
+        <v>53.431</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.247</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>13.243</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>35337.97</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1.728</v>
       </c>
-      <c r="F5">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="G5" t="n">
         <v>11.548</v>
       </c>
-      <c r="H5">
-        <v>201.64099999999999</v>
-      </c>
-      <c r="I5">
-        <v>16694.925999999999</v>
-      </c>
-      <c r="J5">
+      <c r="H5" t="n">
+        <v>201.641</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16694.926</v>
+      </c>
+      <c r="J5" t="n">
         <v>3423.375</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>6.798</v>
       </c>
-      <c r="L5">
-        <v>21939.028999999999</v>
-      </c>
-      <c r="M5">
-        <v>2.3290000000000002</v>
-      </c>
-      <c r="N5">
-        <v>24535.706999999999</v>
-      </c>
-      <c r="O5">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="P5">
-        <v>3.9420000000000002</v>
-      </c>
-      <c r="Q5">
-        <v>175.00800000000001</v>
-      </c>
-      <c r="R5">
-        <v>93.671000000000006</v>
+      <c r="L5" t="n">
+        <v>21939.029</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.329</v>
+      </c>
+      <c r="N5" t="n">
+        <v>24535.707</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.942</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>175.008</v>
+      </c>
+      <c r="R5" t="n">
+        <v>93.671</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="C6">
-        <v>17.513999999999999</v>
-      </c>
-      <c r="D6">
-        <v>35955.788999999997</v>
-      </c>
-      <c r="E6">
+      <c r="B6" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.514</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35955.789</v>
+      </c>
+      <c r="E6" t="n">
         <v>1.81</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.216</v>
       </c>
-      <c r="G6">
-        <v>12.922000000000001</v>
-      </c>
-      <c r="H6">
-        <v>204.74299999999999</v>
-      </c>
-      <c r="I6">
-        <v>17128.080000000002</v>
-      </c>
-      <c r="J6">
-        <v>4185.1580000000004</v>
-      </c>
-      <c r="K6">
+      <c r="G6" t="n">
+        <v>12.922</v>
+      </c>
+      <c r="H6" t="n">
+        <v>204.743</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17128.08</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4185.158</v>
+      </c>
+      <c r="K6" t="n">
         <v>11.121</v>
       </c>
-      <c r="L6">
-        <v>22335.187000000002</v>
-      </c>
-      <c r="M6">
-        <v>3.9510000000000001</v>
-      </c>
-      <c r="N6">
-        <v>24590.008000000002</v>
-      </c>
-      <c r="O6">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="P6">
-        <v>4.0339999999999998</v>
-      </c>
-      <c r="Q6">
+      <c r="L6" t="n">
+        <v>22335.187</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="N6" t="n">
+        <v>24590.008</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.354</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.034</v>
+      </c>
+      <c r="Q6" t="n">
         <v>212.09</v>
       </c>
-      <c r="R6">
-        <v>107.73099999999999</v>
+      <c r="R6" t="n">
+        <v>107.731</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.06</v>
       </c>
-      <c r="C7">
-        <v>3.7610000000000001</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>3.761</v>
+      </c>
+      <c r="D7" t="n">
         <v>7473.576</v>
       </c>
-      <c r="E7">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="F7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G7">
-        <v>2.4889999999999999</v>
-      </c>
-      <c r="H7">
-        <v>47.857999999999997</v>
-      </c>
-      <c r="I7">
-        <v>3022.8359999999998</v>
-      </c>
-      <c r="J7">
-        <v>668.07500000000005</v>
-      </c>
-      <c r="K7">
+      <c r="E7" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="H7" t="n">
+        <v>47.858</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3022.836</v>
+      </c>
+      <c r="J7" t="n">
+        <v>668.075</v>
+      </c>
+      <c r="K7" t="n">
         <v>1.837</v>
       </c>
-      <c r="L7">
-        <v>5005.2259999999997</v>
-      </c>
-      <c r="M7">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="N7">
-        <v>4601.5370000000003</v>
-      </c>
-      <c r="O7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="P7">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="Q7">
-        <v>36.792000000000002</v>
-      </c>
-      <c r="R7">
-        <v>19.716000000000001</v>
+      <c r="L7" t="n">
+        <v>5005.226</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4601.537</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.684</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>36.792</v>
+      </c>
+      <c r="R7" t="n">
+        <v>19.716</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>1.22</v>
       </c>
-      <c r="C8">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.376</v>
       </c>
-      <c r="E8">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="G8">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="I8">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="J8">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="K8">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="L8">
+      <c r="E8" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.442</v>
       </c>
-      <c r="M8">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="N8">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="O8">
-        <v>1.8819999999999999</v>
-      </c>
-      <c r="P8">
+      <c r="M8" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.245</v>
       </c>
-      <c r="Q8">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="R8">
-        <v>0.36899999999999999</v>
+      <c r="Q8" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.369</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>